--- a/biology/Botanique/Viorne/Viorne.xlsx
+++ b/biology/Botanique/Viorne/Viorne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viburnum
 Les viornes sont des arbrisseaux ou de petits arbres appartenant au genre Viburnum. Ce genre, autrefois classé parmi les Caprifoliacées, fait aujourd'hui partie de la famille des Adoxacées, rangée dans l'ordre des Dipsacales par la classification APG II (alors que la classification APG I se contentait de la situer dans les euasterid II, sans l'inclure dans un ordre).
@@ -514,7 +526,9 @@
           <t>Caractéristiques du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Arbrisseaux à feuilles opposées simples, généralement dentées, entières ou lobées.
 Fleurs disposées en cymes multipares (fausses ombelles).
@@ -547,7 +561,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Viburnum carlesii Hemsl. - Viorne de Carles
 			Viburnum carlesii
@@ -618,9 +634,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (29 Jul 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (29 Jul 2010) :
 Viburnum acerifolium
 Viburnum awabuki
 Viburnum betulifolium
@@ -679,7 +697,7 @@
 Viburnum utile
 Viburnum wrightii
 Viburnum sp. Qiu 95083
-Selon ITIS      (29 Jul 2010)[2] :
+Selon ITIS      (29 Jul 2010) :
 Viburnum acerifolium L.
 Viburnum ashei Bush
 Viburnum bracteatum Rehd.
